--- a/outputs/scenarios.xlsx
+++ b/outputs/scenarios.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alexandre\GitHub\flame_us\outputs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alex Milovanoff\GitHub\flame_singapore\outputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB3B5D9E-3B67-4EDD-A7ED-6549F8C10C91}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="scenarios" sheetId="1" r:id="rId1"/>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="32">
   <si>
     <t>Scenario</t>
   </si>
@@ -42,163 +43,85 @@
     <t>Default</t>
   </si>
   <si>
-    <t>lw_scen</t>
-  </si>
-  <si>
     <t>cha</t>
   </si>
   <si>
-    <t>constant</t>
-  </si>
-  <si>
-    <t>aeo_scen</t>
-  </si>
-  <si>
-    <t>REF</t>
-  </si>
-  <si>
-    <t>rec_scen</t>
-  </si>
-  <si>
-    <t>BAU</t>
-  </si>
-  <si>
     <t>num</t>
   </si>
   <si>
-    <t>seek_bev</t>
-  </si>
-  <si>
-    <t>y</t>
-  </si>
-  <si>
-    <t>SSP1-26</t>
-  </si>
-  <si>
-    <t>rebound</t>
-  </si>
-  <si>
-    <t>No rebound</t>
-  </si>
-  <si>
-    <t>High</t>
-  </si>
-  <si>
-    <t>rebound_value_mdl</t>
-  </si>
-  <si>
-    <t>n</t>
-  </si>
-  <si>
-    <t>high</t>
-  </si>
-  <si>
-    <t>ev</t>
-  </si>
-  <si>
-    <t>Constant</t>
-  </si>
-  <si>
-    <t>bnef</t>
-  </si>
-  <si>
-    <t>aeo</t>
-  </si>
-  <si>
-    <t>s_and_f_attribute_name</t>
-  </si>
-  <si>
-    <t>s_and_f_cumulative_target</t>
-  </si>
-  <si>
-    <t>s_and_f_cut_off</t>
-  </si>
-  <si>
-    <t>s_and_f_max_attribute_value</t>
-  </si>
-  <si>
-    <t>s_and_f_target_sector</t>
-  </si>
-  <si>
-    <t>s_and_f_target_year</t>
-  </si>
-  <si>
-    <t>all</t>
-  </si>
-  <si>
-    <t>ssp_scen</t>
-  </si>
-  <si>
-    <t>ssp_mitigation_scen</t>
-  </si>
-  <si>
-    <t>SSP2-26</t>
-  </si>
-  <si>
-    <t>ldv_stock_proj</t>
-  </si>
-  <si>
-    <t>gcam</t>
-  </si>
-  <si>
-    <t>SSP4-26</t>
-  </si>
-  <si>
-    <t>SSP5-26</t>
-  </si>
-  <si>
-    <t>market_share_source</t>
-  </si>
-  <si>
-    <t>market_share_adj_techno</t>
-  </si>
-  <si>
-    <t>ssp</t>
-  </si>
-  <si>
-    <t>ssp_iam</t>
-  </si>
-  <si>
-    <t>ef_elec_mdl</t>
-  </si>
-  <si>
-    <t>BEV100,BEV300</t>
-  </si>
-  <si>
-    <t>market_share_diffusion_mdl</t>
-  </si>
-  <si>
-    <t>linear</t>
-  </si>
-  <si>
-    <t>market_share_linear_diff_coef</t>
-  </si>
-  <si>
-    <t>SSP1</t>
-  </si>
-  <si>
-    <t>SSP2</t>
-  </si>
-  <si>
-    <t>SSP4</t>
-  </si>
-  <si>
-    <t>SSP5</t>
-  </si>
-  <si>
-    <t>HOP</t>
-  </si>
-  <si>
-    <t>LOP</t>
-  </si>
-  <si>
-    <t>adj_stock</t>
+    <t>pkt_proj_tot_scen</t>
+  </si>
+  <si>
+    <t>bau</t>
+  </si>
+  <si>
+    <t>optimization_modal_share</t>
+  </si>
+  <si>
+    <t>modal_share_variable</t>
+  </si>
+  <si>
+    <t>optimization_mode</t>
+  </si>
+  <si>
+    <t>Private car</t>
+  </si>
+  <si>
+    <t>optimization_scen</t>
+  </si>
+  <si>
+    <t>modal_share</t>
+  </si>
+  <si>
+    <t>optimization_technology</t>
+  </si>
+  <si>
+    <t>optimization_techno</t>
+  </si>
+  <si>
+    <t>BEV</t>
+  </si>
+  <si>
+    <t>techno_variable</t>
+  </si>
+  <si>
+    <t>technology</t>
+  </si>
+  <si>
+    <t>optimization_fc</t>
+  </si>
+  <si>
+    <t>fc_variable</t>
+  </si>
+  <si>
+    <t>optimization_fc_mode</t>
+  </si>
+  <si>
+    <t>optimization_fc_techno</t>
+  </si>
+  <si>
+    <t>ICEV-G</t>
+  </si>
+  <si>
+    <t>Optimization</t>
+  </si>
+  <si>
+    <t>fc</t>
+  </si>
+  <si>
+    <t>optimization_travel_demand</t>
+  </si>
+  <si>
+    <t>travel_demand</t>
+  </si>
+  <si>
+    <t>pkt_tot_variable</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -517,7 +440,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <fgColor theme="2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -684,8 +607,8 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1006,33 +929,34 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G36"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:D19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B34" sqref="B34"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="A18" sqref="A18:A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="32.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="5.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="7" width="32.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="25.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="32.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="7" width="32.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
@@ -1046,726 +970,242 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="D3" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" s="1" t="s">
+      <c r="D5" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D5" s="1" t="s">
+      <c r="D8" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
+      <c r="C9" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B11" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="C11" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C12" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D6" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B9" t="s">
-        <v>42</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G9" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B10" t="s">
-        <v>43</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="G10" s="2" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B11" t="s">
-        <v>48</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="G11" s="2" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B12" t="s">
-        <v>50</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D12" s="2">
-        <v>0</v>
-      </c>
-      <c r="E12" s="2">
-        <v>0</v>
-      </c>
-      <c r="F12" s="2">
-        <v>0</v>
-      </c>
-      <c r="G12" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D12" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D13" s="2">
-        <v>1</v>
-      </c>
-      <c r="E13" s="2">
-        <v>2</v>
-      </c>
-      <c r="F13" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B17" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G13" s="2">
+      <c r="C17" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="14" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="2" t="s">
+      <c r="D17" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B18" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B14" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="C14" s="2" t="s">
+      <c r="C18" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C19" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D14" s="2">
-        <v>26</v>
-      </c>
-      <c r="E14" s="2">
-        <v>26</v>
-      </c>
-      <c r="F14" s="2">
-        <v>26</v>
-      </c>
-      <c r="G14" s="2">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="F15" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="G15" s="2" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="F16" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="G16" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D17" s="2">
-        <v>1E-4</v>
-      </c>
-      <c r="E17" s="2">
-        <v>1E-4</v>
-      </c>
-      <c r="F17" s="2">
-        <v>1E-4</v>
-      </c>
-      <c r="G17" s="2">
-        <v>1E-4</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D18" s="2">
-        <v>1</v>
-      </c>
-      <c r="E18" s="2">
-        <v>1</v>
-      </c>
-      <c r="F18" s="2">
-        <v>1</v>
-      </c>
-      <c r="G18" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="E19" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="F19" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="G19" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D20" s="2">
-        <v>2050</v>
-      </c>
-      <c r="E20" s="2">
-        <v>2050</v>
-      </c>
-      <c r="F20" s="2">
-        <v>2050</v>
-      </c>
-      <c r="G20" s="2">
-        <v>2050</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="F21" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E22" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F22" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="E23" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="F23" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B24" t="s">
-        <v>42</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E24" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="F24" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B25" t="s">
-        <v>43</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D25" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E25" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="F25" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B26" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D26" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E26" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F26" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D27" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="E27" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="F27" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="G27" s="1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="E28" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="F28" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="G28" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D29" s="1">
-        <v>1</v>
-      </c>
-      <c r="E29" s="1">
-        <v>2</v>
-      </c>
-      <c r="F29" s="1">
-        <v>4</v>
-      </c>
-      <c r="G29" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D30" s="1">
-        <v>26</v>
-      </c>
-      <c r="E30" s="1">
-        <v>26</v>
-      </c>
-      <c r="F30" s="1">
-        <v>26</v>
-      </c>
-      <c r="G30" s="1">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D31" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="E31" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="F31" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="G31" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B32" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C32" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D32" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E32" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="F32" s="2" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B33" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C33" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D33" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E33" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="F33" s="2" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A34" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B34" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="C34" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D34" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="E34" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="F34" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A35" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B35" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="C35" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D35" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="E35" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="F35" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A36" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B36" t="s">
-        <v>42</v>
-      </c>
-      <c r="C36" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D36" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="E36" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="F36" s="2" t="s">
-        <v>27</v>
+      <c r="D19" s="1">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/outputs/scenarios.xlsx
+++ b/outputs/scenarios.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alex Milovanoff\GitHub\flame_singapore\outputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB3B5D9E-3B67-4EDD-A7ED-6549F8C10C91}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2040B2C6-DB23-43E0-8757-A0551C9F8E89}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="31">
   <si>
     <t>Scenario</t>
   </si>
@@ -59,9 +59,6 @@
   </si>
   <si>
     <t>modal_share_variable</t>
-  </si>
-  <si>
-    <t>optimization_mode</t>
   </si>
   <si>
     <t>Private car</t>
@@ -930,10 +927,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D19"/>
+  <dimension ref="A1:D18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18:A19"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -995,7 +992,7 @@
         <v>5</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="5" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -1017,18 +1014,18 @@
         <v>11</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>4</v>
@@ -1037,15 +1034,15 @@
         <v>5</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>8</v>
@@ -1056,77 +1053,77 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>17</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>13</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D11" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
         <v>21</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="12" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B12" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B12" s="2" t="s">
-        <v>4</v>
-      </c>
       <c r="C12" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>27</v>
+        <v>8</v>
+      </c>
+      <c r="D12" s="2">
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>23</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D13" s="2">
-        <v>0</v>
+        <v>7</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="14" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>24</v>
@@ -1135,76 +1132,62 @@
         <v>7</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
     </row>
     <row r="15" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D15" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D16" s="1" t="s">
         <v>26</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D17" s="1" t="s">
         <v>29</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="C19" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D19" s="1">
+      <c r="D18" s="1">
         <v>0</v>
       </c>
     </row>

--- a/outputs/scenarios.xlsx
+++ b/outputs/scenarios.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alex Milovanoff\GitHub\flame_singapore\outputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2040B2C6-DB23-43E0-8757-A0551C9F8E89}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D6FC816-05BC-4FEC-B211-9E30DBAB7BD3}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="384" uniqueCount="60">
   <si>
     <t>Scenario</t>
   </si>
@@ -49,77 +49,164 @@
     <t>num</t>
   </si>
   <si>
-    <t>pkt_proj_tot_scen</t>
-  </si>
-  <si>
-    <t>bau</t>
-  </si>
-  <si>
-    <t>optimization_modal_share</t>
-  </si>
-  <si>
-    <t>modal_share_variable</t>
-  </si>
-  <si>
-    <t>Private car</t>
-  </si>
-  <si>
     <t>optimization_scen</t>
   </si>
   <si>
     <t>modal_share</t>
   </si>
   <si>
-    <t>optimization_technology</t>
-  </si>
-  <si>
-    <t>optimization_techno</t>
-  </si>
-  <si>
-    <t>BEV</t>
-  </si>
-  <si>
-    <t>techno_variable</t>
-  </si>
-  <si>
     <t>technology</t>
   </si>
   <si>
-    <t>optimization_fc</t>
-  </si>
-  <si>
-    <t>fc_variable</t>
-  </si>
-  <si>
-    <t>optimization_fc_mode</t>
-  </si>
-  <si>
-    <t>optimization_fc_techno</t>
-  </si>
-  <si>
-    <t>ICEV-G</t>
-  </si>
-  <si>
-    <t>Optimization</t>
-  </si>
-  <si>
-    <t>fc</t>
-  </si>
-  <si>
-    <t>optimization_travel_demand</t>
-  </si>
-  <si>
     <t>travel_demand</t>
   </si>
   <si>
     <t>pkt_tot_variable</t>
+  </si>
+  <si>
+    <t>scen1</t>
+  </si>
+  <si>
+    <t>pkt_proj_modal_share_scen</t>
+  </si>
+  <si>
+    <t>ldv_high</t>
+  </si>
+  <si>
+    <t>techno_ms_proj_car</t>
+  </si>
+  <si>
+    <t>techno_ms_proj_public_bus</t>
+  </si>
+  <si>
+    <t>techno_ms_proj_taxi</t>
+  </si>
+  <si>
+    <t>bau_pt</t>
+  </si>
+  <si>
+    <t>constant</t>
+  </si>
+  <si>
+    <t>ldv_ev40</t>
+  </si>
+  <si>
+    <t>bus_eb40</t>
+  </si>
+  <si>
+    <t>taxi_ev40</t>
+  </si>
+  <si>
+    <t>carbon_budget_mdl</t>
+  </si>
+  <si>
+    <t>budget</t>
+  </si>
+  <si>
+    <t>2C_low</t>
+  </si>
+  <si>
+    <t>2C_high</t>
+  </si>
+  <si>
+    <t>1.5C_high</t>
+  </si>
+  <si>
+    <t>1.5C_low</t>
+  </si>
+  <si>
+    <t>techno_ms_proj_moto</t>
+  </si>
+  <si>
+    <t>moto_em40</t>
+  </si>
+  <si>
+    <t>PC_Constant</t>
+  </si>
+  <si>
+    <t>PC_EV</t>
+  </si>
+  <si>
+    <t>PT_Constant</t>
+  </si>
+  <si>
+    <t>PT_EV</t>
+  </si>
+  <si>
+    <t>optimization_travel_demand_2c</t>
+  </si>
+  <si>
+    <t>optimization_travel_demand_15c</t>
+  </si>
+  <si>
+    <t>optimization_modal_share_2c</t>
+  </si>
+  <si>
+    <t>optimization_modal_share_15c</t>
+  </si>
+  <si>
+    <t>2C</t>
+  </si>
+  <si>
+    <t>1.5C</t>
+  </si>
+  <si>
+    <t>EV</t>
+  </si>
+  <si>
+    <t>Constant</t>
+  </si>
+  <si>
+    <t>optimization_technology_2c</t>
+  </si>
+  <si>
+    <t>PC</t>
+  </si>
+  <si>
+    <t>PT</t>
+  </si>
+  <si>
+    <t>electrification_year</t>
+  </si>
+  <si>
+    <t>optimization_electricity_2c</t>
+  </si>
+  <si>
+    <t>electricity</t>
+  </si>
+  <si>
+    <t>ef_elec_variable</t>
+  </si>
+  <si>
+    <t>last_yr</t>
+  </si>
+  <si>
+    <t>ef_elec_scen</t>
+  </si>
+  <si>
+    <t>transition_renewable</t>
+  </si>
+  <si>
+    <t>Transition to renewable</t>
+  </si>
+  <si>
+    <t>scrap_policy_mdl_car</t>
+  </si>
+  <si>
+    <t>scrap_policy_mdl_public_bus</t>
+  </si>
+  <si>
+    <t>scrap_policy_mdl_taxi</t>
+  </si>
+  <si>
+    <t>n</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -250,6 +337,12 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -927,22 +1020,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D18"/>
+  <dimension ref="A1:I69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="25.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="31.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="32.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="5.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="7" width="32.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -953,7 +1046,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
@@ -967,231 +1060,1330 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="1">
+        <v>2050</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" t="s">
+        <v>31</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" t="s">
+        <v>56</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11" t="s">
+        <v>57</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12" t="s">
+        <v>58</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="I13" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="I14" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B17" t="s">
+        <v>17</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B18" t="s">
+        <v>18</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B19" t="s">
+        <v>31</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B20" t="s">
+        <v>19</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B21" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3" s="1" t="s">
+      <c r="C21" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D22" s="1">
+        <v>0</v>
+      </c>
+      <c r="E22" s="1">
+        <v>0</v>
+      </c>
+      <c r="F22" s="1">
+        <v>0</v>
+      </c>
+      <c r="G22" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="G24" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G25" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G26" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G27" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G28" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F29" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G29" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F30" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G30" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D31" s="2">
+        <v>0</v>
+      </c>
+      <c r="E31" s="2">
+        <v>0</v>
+      </c>
+      <c r="F31" s="2">
+        <v>0</v>
+      </c>
+      <c r="G31" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="F32" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="G32" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B34" t="s">
+        <v>17</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B35" t="s">
+        <v>18</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B36" t="s">
+        <v>31</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B37" t="s">
+        <v>19</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A38" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D38" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
+      <c r="E38" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A39" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D39" s="1">
+        <v>0</v>
+      </c>
+      <c r="E39" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A40" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A41" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E41" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A42" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E42" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A43" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E43" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A44" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E44" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A45" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E45" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A46" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D46" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E46" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A47" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D47" s="2">
+        <v>0</v>
+      </c>
+      <c r="E47" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A48" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D48" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E48" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A49" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E49" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A50" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E50" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A51" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D51" s="1">
+        <v>2100</v>
+      </c>
+      <c r="E51" s="1">
+        <v>2100</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A52" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D52" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="E52" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A53" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E53" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A54" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D54" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E54" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A55" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D55" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E55" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A56" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D56" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E56" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A57" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D57" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E57" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A58" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B58" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C58" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C5" s="2" t="s">
+      <c r="D58" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="E58" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A59" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B59" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C59" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D59" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E59" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A60" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B60" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C60" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="2">
+      <c r="D60" s="2">
+        <v>2040</v>
+      </c>
+      <c r="E60" s="2">
+        <v>2040</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A61" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B61" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C61" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D61" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="E61" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A62" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B62" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C62" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D62" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E62" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A63" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B63" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C63" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D63" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E63" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A64" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B64" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C64" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D64" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E64" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A65" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B65" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C65" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D65" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E65" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A66" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B66" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C66" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D66" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B7" s="1" t="s">
+      <c r="E66" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A67" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B67" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C67" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D67" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E67" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A68" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B68" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="C68" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D7" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D8" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D12" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D18" s="1">
-        <v>0</v>
+      <c r="D68" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E68" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A69" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C69" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D69" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E69" s="1" t="s">
+        <v>54</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>

--- a/outputs/scenarios.xlsx
+++ b/outputs/scenarios.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23426"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alex Milovanoff\GitHub\flame_singapore\outputs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GitHub\reducto\outputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D6FC816-05BC-4FEC-B211-9E30DBAB7BD3}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E7D0DD2-FD5F-4131-A70E-257325A2C43A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-19320" yWindow="255" windowWidth="19440" windowHeight="15000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="scenarios" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="384" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="465" uniqueCount="65">
   <si>
     <t>Scenario</t>
   </si>
@@ -200,6 +200,21 @@
   </si>
   <si>
     <t>n</t>
+  </si>
+  <si>
+    <t>scen2</t>
+  </si>
+  <si>
+    <t>PT_EV_car</t>
+  </si>
+  <si>
+    <t>PT_EV_bus</t>
+  </si>
+  <si>
+    <t>PT_EV_taxi</t>
+  </si>
+  <si>
+    <t>PT_EV_moto</t>
   </si>
 </sst>
 </file>
@@ -1020,10 +1035,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I69"/>
+  <dimension ref="A1:I78"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="H75" sqref="H75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1031,8 +1046,10 @@
     <col min="1" max="1" width="31.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="32.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="5.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="7" width="32.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="6" width="32.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
@@ -2297,7 +2314,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A65" s="2" t="s">
         <v>49</v>
       </c>
@@ -2314,7 +2331,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A66" s="2" t="s">
         <v>49</v>
       </c>
@@ -2331,7 +2348,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A67" s="2" t="s">
         <v>49</v>
       </c>
@@ -2348,7 +2365,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
         <v>50</v>
       </c>
@@ -2365,7 +2382,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
         <v>50</v>
       </c>
@@ -2380,6 +2397,267 @@
       </c>
       <c r="E69" s="1" t="s">
         <v>54</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A70" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B70" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C70" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D70" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E70" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="F70" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="G70" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="H70" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="I70" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A71" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B71" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C71" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D71" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E71" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F71" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G71" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="H71" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I71" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A72" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B72" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C72" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D72" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E72" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F72" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G72" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H72" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="I72" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A73" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B73" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C73" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D73" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E73" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F73" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G73" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H73" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="I73" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A74" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B74" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C74" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D74" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E74" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F74" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G74" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H74" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="I74" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A75" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B75" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C75" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D75" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E75" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F75" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G75" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="H75" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="I75" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A76" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B76" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C76" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D76" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="E76" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="F76" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="G76" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="H76" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="I76" s="2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A77" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B77" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C77" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D77" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="E77" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="F77" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="G77" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="H77" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="I77" s="2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A78" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B78" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C78" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D78" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="E78" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="F78" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="G78" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="H78" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="I78" s="2" t="s">
+        <v>59</v>
       </c>
     </row>
   </sheetData>

--- a/outputs/scenarios.xlsx
+++ b/outputs/scenarios.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23628"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GitHub\reducto\outputs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GitHub\curtail_sgp\outputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E7D0DD2-FD5F-4131-A70E-257325A2C43A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{384E4505-976C-410E-96E0-4403F501CCDD}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-19320" yWindow="255" windowWidth="19440" windowHeight="15000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="465" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="422" uniqueCount="63">
   <si>
     <t>Scenario</t>
   </si>
@@ -55,9 +55,6 @@
     <t>modal_share</t>
   </si>
   <si>
-    <t>technology</t>
-  </si>
-  <si>
     <t>travel_demand</t>
   </si>
   <si>
@@ -155,9 +152,6 @@
   </si>
   <si>
     <t>Constant</t>
-  </si>
-  <si>
-    <t>optimization_technology_2c</t>
   </si>
   <si>
     <t>PC</t>
@@ -1035,10 +1029,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I78"/>
+  <dimension ref="A1:I69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="H75" sqref="H75"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A52" sqref="A52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1082,7 +1076,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>7</v>
@@ -1093,7 +1087,7 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>4</v>
@@ -1102,205 +1096,205 @@
         <v>5</v>
       </c>
       <c r="D4" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E4" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="F4" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="G4" s="1" t="s">
         <v>35</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="C5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>16</v>
-      </c>
       <c r="E5" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D6" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="E6" s="1" t="s">
-        <v>22</v>
-      </c>
       <c r="F6" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G6" s="1" t="s">
         <v>21</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B8" t="s">
+        <v>30</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C8" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>32</v>
-      </c>
       <c r="F8" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B10" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B11" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B12" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="13" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>4</v>
@@ -1309,56 +1303,56 @@
         <v>5</v>
       </c>
       <c r="D13" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G13" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="E13" s="2" t="s">
+      <c r="H13" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="F13" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="G13" s="2" t="s">
+      <c r="I13" s="2" t="s">
         <v>29</v>
-      </c>
-      <c r="H13" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="I13" s="2" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="14" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="F14" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B14" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D14" s="2" t="s">
+      <c r="G14" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="E14" s="2" t="s">
+      <c r="H14" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="F14" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="G14" s="2" t="s">
+      <c r="I14" s="2" t="s">
         <v>29</v>
-      </c>
-      <c r="H14" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="I14" s="2" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>4</v>
@@ -1367,136 +1361,136 @@
         <v>5</v>
       </c>
       <c r="D15" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E15" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="E15" s="1" t="s">
+      <c r="F15" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="F15" s="1" t="s">
+      <c r="G15" s="1" t="s">
         <v>35</v>
-      </c>
-      <c r="G15" s="1" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B16" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D16" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C16" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>16</v>
-      </c>
       <c r="E16" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B17" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D17" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="E17" s="1" t="s">
-        <v>22</v>
-      </c>
       <c r="F17" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G17" s="1" t="s">
         <v>21</v>
-      </c>
-      <c r="G17" s="1" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B18" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B19" t="s">
+        <v>30</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E19" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C19" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>32</v>
-      </c>
       <c r="F19" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B20" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>9</v>
@@ -1505,24 +1499,24 @@
         <v>7</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>8</v>
@@ -1542,30 +1536,30 @@
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="24" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>4</v>
@@ -1574,136 +1568,136 @@
         <v>5</v>
       </c>
       <c r="D24" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E24" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="E24" s="2" t="s">
+      <c r="F24" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="F24" s="2" t="s">
+      <c r="G24" s="2" t="s">
         <v>35</v>
-      </c>
-      <c r="G24" s="2" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="25" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B25" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D25" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C25" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D25" s="2" t="s">
-        <v>16</v>
-      </c>
       <c r="E25" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="26" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D26" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E26" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="E26" s="2" t="s">
-        <v>22</v>
-      </c>
       <c r="F26" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G26" s="2" t="s">
         <v>21</v>
-      </c>
-      <c r="G26" s="2" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="27" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C27" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="28" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B28" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E28" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="C28" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D28" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="E28" s="2" t="s">
-        <v>32</v>
-      </c>
       <c r="F28" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="29" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C29" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="30" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B30" s="2" t="s">
         <v>9</v>
@@ -1712,24 +1706,24 @@
         <v>7</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="31" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C31" s="2" t="s">
         <v>8</v>
@@ -1749,30 +1743,30 @@
     </row>
     <row r="32" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C32" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B33" s="1" t="s">
         <v>4</v>
@@ -1781,83 +1775,83 @@
         <v>5</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B34" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C34" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D34" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E34" s="1" t="s">
         <v>21</v>
-      </c>
-      <c r="E34" s="1" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B35" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C35" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B36" t="s">
+        <v>30</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E36" s="1" t="s">
         <v>31</v>
-      </c>
-      <c r="C36" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D36" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="E36" s="1" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B37" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C37" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B38" s="1" t="s">
         <v>9</v>
@@ -1874,10 +1868,10 @@
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C39" s="1" t="s">
         <v>8</v>
@@ -1891,24 +1885,24 @@
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C40" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B41" s="2" t="s">
         <v>4</v>
@@ -1917,83 +1911,83 @@
         <v>5</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C42" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D42" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E42" s="2" t="s">
         <v>21</v>
-      </c>
-      <c r="E42" s="2" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C43" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B44" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E44" s="2" t="s">
         <v>31</v>
-      </c>
-      <c r="C44" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D44" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="E44" s="2" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C45" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B46" s="2" t="s">
         <v>9</v>
@@ -2010,10 +2004,10 @@
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C47" s="2" t="s">
         <v>8</v>
@@ -2027,24 +2021,24 @@
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C48" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B49" s="1" t="s">
         <v>4</v>
@@ -2053,49 +2047,49 @@
         <v>5</v>
       </c>
       <c r="D49" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E49" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A50" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E50" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A51" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B51" s="1" t="s">
         <v>46</v>
-      </c>
-      <c r="E49" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A50" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="B50" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C50" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D50" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E50" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A51" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="B51" s="1" t="s">
-        <v>48</v>
       </c>
       <c r="C51" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D51" s="1">
-        <v>2100</v>
+        <v>2040</v>
       </c>
       <c r="E51" s="1">
-        <v>2100</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+        <v>2040</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B52" s="1" t="s">
         <v>9</v>
@@ -2104,560 +2098,407 @@
         <v>7</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>11</v>
+        <v>48</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B53" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E53" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A54" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B54" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C53" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D53" s="1" t="s">
+      <c r="C54" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D54" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E53" s="1" t="s">
+      <c r="E54" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A54" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="B54" s="1" t="s">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A55" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D55" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E55" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A56" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B56" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C54" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D54" s="1" t="s">
+      <c r="C56" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D56" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="E54" s="1" t="s">
+      <c r="E56" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A55" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="B55" s="1" t="s">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A57" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D57" s="1">
+        <v>0</v>
+      </c>
+      <c r="E57" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A58" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D58" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E58" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A59" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B59" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C59" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D59" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E59" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A60" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B60" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C60" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D60" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E60" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A61" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D61" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E61" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="F61" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="G61" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="H61" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="I61" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A62" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D62" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E62" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F62" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G62" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H62" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I62" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A63" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D63" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E63" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F63" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G63" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H63" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I63" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A64" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D64" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E64" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F64" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G64" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H64" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I64" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A65" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D65" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E65" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F65" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G65" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H65" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C55" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D55" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="E55" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A56" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="B56" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C56" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D56" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="E56" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A57" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="B57" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C57" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D57" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="E57" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A58" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="B58" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C58" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D58" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="E58" s="2" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A59" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="B59" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C59" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D59" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="E59" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A60" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="B60" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="C60" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D60" s="2">
-        <v>2040</v>
-      </c>
-      <c r="E60" s="2">
-        <v>2040</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A61" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="B61" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C61" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D61" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="E61" s="2" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A62" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="B62" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C62" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D62" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E62" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A63" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="B63" s="2" t="s">
+      <c r="I65" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A66" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B66" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C63" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D63" s="2" t="s">
+      <c r="C66" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D66" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E66" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F66" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G66" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="E63" s="2" t="s">
+      <c r="H66" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I66" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A64" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="B64" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="C64" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D64" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="E64" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A65" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="B65" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C65" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D65" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="E65" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A66" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="B66" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="C66" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D66" s="2">
-        <v>0</v>
-      </c>
-      <c r="E66" s="2">
-        <v>0</v>
-      </c>
-    </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A67" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="B67" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="C67" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D67" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="E67" s="2" t="s">
-        <v>41</v>
+      <c r="A67" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C67" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D67" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="E67" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="F67" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="G67" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="H67" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="I67" s="1" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>4</v>
+        <v>55</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>44</v>
+        <v>57</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
+      </c>
+      <c r="F68" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="G68" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="H68" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="I68" s="1" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="C69" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>21</v>
+        <v>57</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A70" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="B70" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C70" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D70" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E70" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="F70" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="G70" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="H70" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="I70" s="2" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A71" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="B71" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C71" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D71" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="E71" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="F71" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G71" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="H71" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="I71" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A72" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="B72" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C72" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D72" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="E72" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="F72" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="G72" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="H72" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="I72" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A73" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="B73" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C73" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D73" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="E73" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="F73" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="G73" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="H73" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="I73" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A74" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="B74" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="C74" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D74" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="E74" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="F74" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="G74" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="H74" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="I74" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A75" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="B75" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C75" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D75" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="E75" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="F75" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="G75" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="H75" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="I75" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A76" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="B76" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="C76" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D76" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="E76" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="F76" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="G76" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="H76" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="I76" s="2" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A77" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="B77" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="C77" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D77" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="E77" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="F77" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="G77" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="H77" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="I77" s="2" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A78" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="B78" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="C78" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D78" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="E78" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="F78" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="G78" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="H78" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="I78" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
+      </c>
+      <c r="F69" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="G69" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="H69" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="I69" s="1" t="s">
+        <v>57</v>
       </c>
     </row>
   </sheetData>
